--- a/data/trans_media/Q23_1_2015-Edad-trans_media.xlsx
+++ b/data/trans_media/Q23_1_2015-Edad-trans_media.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,41; 16,13</t>
+          <t>15,36; 16,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 16,59</t>
+          <t>15,5; 16,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,92; 15,65</t>
+          <t>14,86; 15,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,44; 16,4</t>
+          <t>15,46; 16,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,28; 15,81</t>
+          <t>15,27; 15,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,59; 16,33</t>
+          <t>15,61; 16,38</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,3; 16,89</t>
+          <t>16,34; 16,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 17,31</t>
+          <t>16,13; 17,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,48; 17,2</t>
+          <t>16,47; 17,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 17,32</t>
+          <t>16,38; 17,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,46; 16,93</t>
+          <t>16,47; 16,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,42; 17,12</t>
+          <t>16,42; 17,13</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,48</t>
+          <t>16,58; 17,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,41; 17,37</t>
+          <t>16,43; 17,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,78; 17,43</t>
+          <t>16,76; 17,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,61</t>
+          <t>16,83; 17,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,3</t>
+          <t>16,75; 17,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,33</t>
+          <t>16,74; 17,35</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 16,81</t>
+          <t>16,09; 16,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 17,76</t>
+          <t>16,66; 17,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,32; 18,09</t>
+          <t>17,32; 18,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 17,86</t>
+          <t>17,17; 17,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,28</t>
+          <t>16,75; 17,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 17,65</t>
+          <t>16,93; 17,64</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,91; 16,84</t>
+          <t>15,93; 16,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,13; 16,74</t>
+          <t>16,12; 16,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,69; 20,95</t>
+          <t>18,74; 21,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,23; 18,05</t>
+          <t>17,22; 18,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,17; 18,2</t>
+          <t>17,17; 18,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,63; 17,14</t>
+          <t>16,64; 17,13</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,92; 17,02</t>
+          <t>15,97; 17,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,88; 24,86</t>
+          <t>20,92; 25,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,65; 20,7</t>
+          <t>18,6; 20,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,51</t>
+          <t>16,82; 17,49</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1119,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,67</t>
+          <t>16,32; 16,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,46; 16,84</t>
+          <t>16,46; 16,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,17 +1134,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,66</t>
+          <t>17,25; 17,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,14</t>
+          <t>16,82; 17,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,11</t>
+          <t>16,83; 17,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q23_1_2015-Edad-trans_media.xlsx
+++ b/data/trans_media/Q23_1_2015-Edad-trans_media.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,36; 16,09</t>
+          <t>15,4; 16,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,86; 15,65</t>
+          <t>14,87; 15,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,27; 15,81</t>
+          <t>15,27; 15,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,34; 16,91</t>
+          <t>16,31; 16,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,47; 17,21</t>
+          <t>16,5; 17,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,47; 16,92</t>
+          <t>16,48; 16,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,58; 17,44</t>
+          <t>16,56; 17,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,76; 17,44</t>
+          <t>16,78; 17,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,32</t>
+          <t>16,77; 17,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,09; 16,81</t>
+          <t>16,13; 16,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,32; 18,15</t>
+          <t>17,32; 18,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,3</t>
+          <t>16,74; 17,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,93; 16,92</t>
+          <t>15,95; 16,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,74; 21,12</t>
+          <t>18,71; 21,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,17; 18,29</t>
+          <t>17,15; 18,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,97; 17,1</t>
+          <t>15,98; 17,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,92; 25,15</t>
+          <t>20,98; 25,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,99; 18,2</t>
+          <t>16,99; 18,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,67</t>
+          <t>16,32; 16,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,43; 17,95</t>
+          <t>17,42; 17,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,13</t>
+          <t>16,84; 17,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
